--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>713.7909062052408</v>
+        <v>958.4356071263882</v>
       </c>
       <c r="AB2" t="n">
-        <v>976.6402081023241</v>
+        <v>1311.373880865113</v>
       </c>
       <c r="AC2" t="n">
-        <v>883.4310373641786</v>
+        <v>1186.218198200147</v>
       </c>
       <c r="AD2" t="n">
-        <v>713790.9062052409</v>
+        <v>958435.6071263881</v>
       </c>
       <c r="AE2" t="n">
-        <v>976640.208102324</v>
+        <v>1311373.880865113</v>
       </c>
       <c r="AF2" t="n">
         <v>3.270345110363471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.99479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>883431.0373641786</v>
+        <v>1186218.198200147</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.0227004020933</v>
+        <v>732.7247949714987</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.7781504596054</v>
+        <v>1002.546390016538</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.6519550473511</v>
+        <v>906.864769636054</v>
       </c>
       <c r="AD3" t="n">
-        <v>537022.7004020932</v>
+        <v>732724.7949714987</v>
       </c>
       <c r="AE3" t="n">
-        <v>734778.1504596054</v>
+        <v>1002546.390016538</v>
       </c>
       <c r="AF3" t="n">
         <v>4.147085929361247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.83854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>664651.9550473511</v>
+        <v>906864.7696360541</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.6062718160691</v>
+        <v>659.7654892635586</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.6914363016961</v>
+        <v>902.7202492095332</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.540534310825</v>
+        <v>816.5658956008017</v>
       </c>
       <c r="AD4" t="n">
-        <v>483606.2718160691</v>
+        <v>659765.4892635586</v>
       </c>
       <c r="AE4" t="n">
-        <v>661691.4363016961</v>
+        <v>902720.2492095332</v>
       </c>
       <c r="AF4" t="n">
         <v>4.502555603551727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.86979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>598540.5343108251</v>
+        <v>816565.8956008017</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>460.8573387814007</v>
+        <v>627.2622003773228</v>
       </c>
       <c r="AB5" t="n">
-        <v>630.5653425115687</v>
+        <v>858.2478154114823</v>
       </c>
       <c r="AC5" t="n">
-        <v>570.3850712262804</v>
+        <v>776.3378484669838</v>
       </c>
       <c r="AD5" t="n">
-        <v>460857.3387814007</v>
+        <v>627262.2003773227</v>
       </c>
       <c r="AE5" t="n">
-        <v>630565.3425115687</v>
+        <v>858247.8154114822</v>
       </c>
       <c r="AF5" t="n">
         <v>4.682158796004698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>570385.0712262804</v>
+        <v>776337.8484669838</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>443.334014748927</v>
+        <v>609.7047109260682</v>
       </c>
       <c r="AB6" t="n">
-        <v>606.5891574958428</v>
+        <v>834.2248837625084</v>
       </c>
       <c r="AC6" t="n">
-        <v>548.6971396576685</v>
+        <v>754.6076316981919</v>
       </c>
       <c r="AD6" t="n">
-        <v>443334.014748927</v>
+        <v>609704.7109260681</v>
       </c>
       <c r="AE6" t="n">
-        <v>606589.1574958428</v>
+        <v>834224.8837625084</v>
       </c>
       <c r="AF6" t="n">
         <v>4.762076189693504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>548697.1396576684</v>
+        <v>754607.6316981919</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>442.6443534539863</v>
+        <v>609.0150496311273</v>
       </c>
       <c r="AB7" t="n">
-        <v>605.645532486396</v>
+        <v>833.2812587530615</v>
       </c>
       <c r="AC7" t="n">
-        <v>547.8435728947371</v>
+        <v>753.7540649352605</v>
       </c>
       <c r="AD7" t="n">
-        <v>442644.3534539863</v>
+        <v>609015.0496311274</v>
       </c>
       <c r="AE7" t="n">
-        <v>605645.5324863959</v>
+        <v>833281.2587530615</v>
       </c>
       <c r="AF7" t="n">
         <v>4.779735161300457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.83854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>547843.5728947371</v>
+        <v>753754.0649352606</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.373709495273</v>
+        <v>826.2443055711664</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.2449694696876</v>
+        <v>1130.503910208627</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.1486074712124</v>
+        <v>1022.610203690518</v>
       </c>
       <c r="AD2" t="n">
-        <v>613373.7094952731</v>
+        <v>826244.3055711663</v>
       </c>
       <c r="AE2" t="n">
-        <v>839244.9694696876</v>
+        <v>1130503.910208627</v>
       </c>
       <c r="AF2" t="n">
         <v>3.992632130912387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>759148.6074712124</v>
+        <v>1022610.203690518</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.1267395463939</v>
+        <v>655.2751390218549</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.2988308610832</v>
+        <v>896.5763539085626</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.4717143719125</v>
+        <v>811.0083650443445</v>
       </c>
       <c r="AD3" t="n">
-        <v>481126.7395463939</v>
+        <v>655275.1390218548</v>
       </c>
       <c r="AE3" t="n">
-        <v>658298.8308610831</v>
+        <v>896576.3539085626</v>
       </c>
       <c r="AF3" t="n">
         <v>4.851842028402766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>595471.7143719125</v>
+        <v>811008.3650443444</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.914270343416</v>
+        <v>606.3821206687686</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.6466005655199</v>
+        <v>829.6787691901345</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.9399776343796</v>
+        <v>750.4953919200933</v>
       </c>
       <c r="AD4" t="n">
-        <v>441914.270343416</v>
+        <v>606382.1206687686</v>
       </c>
       <c r="AE4" t="n">
-        <v>604646.6005655199</v>
+        <v>829678.7691901345</v>
       </c>
       <c r="AF4" t="n">
         <v>5.201025880364663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.02083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>546939.9776343796</v>
+        <v>750495.3919200933</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.1035323956524</v>
+        <v>591.6387025287095</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.3818955017465</v>
+        <v>809.5061740572024</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.6093075802006</v>
+        <v>732.2480409542331</v>
       </c>
       <c r="AD5" t="n">
-        <v>427103.5323956524</v>
+        <v>591638.7025287094</v>
       </c>
       <c r="AE5" t="n">
-        <v>584381.8955017464</v>
+        <v>809506.1740572024</v>
       </c>
       <c r="AF5" t="n">
         <v>5.272972921439343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>528609.3075802006</v>
+        <v>732248.0409542331</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.8470394602908</v>
+        <v>559.7887438091564</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.4566035128689</v>
+        <v>765.9276554160996</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.1126750372775</v>
+        <v>692.8285949694023</v>
       </c>
       <c r="AD2" t="n">
-        <v>400847.0394602907</v>
+        <v>559788.7438091564</v>
       </c>
       <c r="AE2" t="n">
-        <v>548456.6035128689</v>
+        <v>765927.6554160996</v>
       </c>
       <c r="AF2" t="n">
         <v>7.159726398959106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>496112.6750372775</v>
+        <v>692828.5949694023</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.0470808198343</v>
+        <v>557.9887851686999</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.9938206924255</v>
+        <v>763.4648725956562</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.8849367526799</v>
+        <v>690.6008566848045</v>
       </c>
       <c r="AD3" t="n">
-        <v>399047.0808198343</v>
+        <v>557988.7851686999</v>
       </c>
       <c r="AE3" t="n">
-        <v>545993.8206924255</v>
+        <v>763464.8725956562</v>
       </c>
       <c r="AF3" t="n">
         <v>7.233823639409097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>493884.9367526799</v>
+        <v>690600.8566848045</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.2566221890325</v>
+        <v>646.2898039848654</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.9528802694633</v>
+        <v>884.2822221059487</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.0675527490358</v>
+        <v>799.8875679260497</v>
       </c>
       <c r="AD2" t="n">
-        <v>466256.6221890325</v>
+        <v>646289.8039848654</v>
       </c>
       <c r="AE2" t="n">
-        <v>637952.8802694633</v>
+        <v>884282.2221059487</v>
       </c>
       <c r="AF2" t="n">
         <v>5.708574255880442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>577067.5527490359</v>
+        <v>799887.5679260497</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.7619950714351</v>
+        <v>563.9315218367952</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.0767302619157</v>
+        <v>771.5959870799827</v>
       </c>
       <c r="AC3" t="n">
-        <v>498.4827405667664</v>
+        <v>697.9559490148379</v>
       </c>
       <c r="AD3" t="n">
-        <v>402761.9950714351</v>
+        <v>563931.5218367953</v>
       </c>
       <c r="AE3" t="n">
-        <v>551076.7302619157</v>
+        <v>771595.9870799828</v>
       </c>
       <c r="AF3" t="n">
         <v>6.361016904548759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.63020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>498482.7405667664</v>
+        <v>697955.9490148379</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.8672447082714</v>
+        <v>555.071059150579</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.3795168738897</v>
+        <v>759.4727111366758</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.4246998248954</v>
+        <v>686.9897015124354</v>
       </c>
       <c r="AD2" t="n">
-        <v>397867.2447082713</v>
+        <v>555071.059150579</v>
       </c>
       <c r="AE2" t="n">
-        <v>544379.5168738896</v>
+        <v>759472.7111366758</v>
       </c>
       <c r="AF2" t="n">
         <v>8.054474351285268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.08854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>492424.6998248954</v>
+        <v>686989.7015124355</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.5332659534195</v>
+        <v>850.062377519904</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.9328963432446</v>
+        <v>1163.092847028064</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.8122830782418</v>
+        <v>1052.088898118768</v>
       </c>
       <c r="AD2" t="n">
-        <v>636533.2659534195</v>
+        <v>850062.3775199039</v>
       </c>
       <c r="AE2" t="n">
-        <v>870932.8963432446</v>
+        <v>1163092.847028064</v>
       </c>
       <c r="AF2" t="n">
         <v>3.801838986587302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.08854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>787812.2830782417</v>
+        <v>1052088.898118768</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.1121889762856</v>
+        <v>674.5135034164325</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.5931191811123</v>
+        <v>922.8991328099602</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.5926530698204</v>
+        <v>834.8189348716448</v>
       </c>
       <c r="AD3" t="n">
-        <v>490112.1889762856</v>
+        <v>674513.5034164325</v>
       </c>
       <c r="AE3" t="n">
-        <v>670593.1191811124</v>
+        <v>922899.1328099602</v>
       </c>
       <c r="AF3" t="n">
         <v>4.657088658745216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.98958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>606592.6530698204</v>
+        <v>834818.9348716448</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.9827046699847</v>
+        <v>616.0344925500398</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.0544324822181</v>
+        <v>842.8855702306831</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.1636234874497</v>
+        <v>762.4417544051937</v>
       </c>
       <c r="AD4" t="n">
-        <v>450982.7046699848</v>
+        <v>616034.4925500398</v>
       </c>
       <c r="AE4" t="n">
-        <v>617054.4324822181</v>
+        <v>842885.5702306831</v>
       </c>
       <c r="AF4" t="n">
         <v>4.990114772621605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>558163.6234874497</v>
+        <v>762441.7544051937</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.1067532363034</v>
+        <v>596.1243756975776</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.8592788655642</v>
+        <v>815.6436699807812</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.5639371633314</v>
+        <v>737.7997828808953</v>
       </c>
       <c r="AD5" t="n">
-        <v>431106.7532363034</v>
+        <v>596124.3756975776</v>
       </c>
       <c r="AE5" t="n">
-        <v>589859.2788655641</v>
+        <v>815643.6699807812</v>
       </c>
       <c r="AF5" t="n">
         <v>5.138512496022369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.60416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>533563.9371633314</v>
+        <v>737799.7828808953</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.8993072798872</v>
+        <v>596.9169297411614</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.9436862730123</v>
+        <v>816.7280773882293</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.5448502497881</v>
+        <v>738.780695967352</v>
       </c>
       <c r="AD6" t="n">
-        <v>431899.3072798873</v>
+        <v>596916.9297411614</v>
       </c>
       <c r="AE6" t="n">
-        <v>590943.6862730123</v>
+        <v>816728.0773882293</v>
       </c>
       <c r="AF6" t="n">
         <v>5.129631799652332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.68229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>534544.850249788</v>
+        <v>738780.695967352</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.091299833415</v>
+        <v>557.4684649509471</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.4766142794072</v>
+        <v>762.7529475188189</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.2760391622369</v>
+        <v>689.9568767381077</v>
       </c>
       <c r="AD2" t="n">
-        <v>392091.299833415</v>
+        <v>557468.4649509471</v>
       </c>
       <c r="AE2" t="n">
-        <v>536476.6142794072</v>
+        <v>762752.9475188189</v>
       </c>
       <c r="AF2" t="n">
         <v>8.59424755917608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.94791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>485276.0391622369</v>
+        <v>689956.8767381076</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.7145846773095</v>
+        <v>735.0035732952022</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.2518405811907</v>
+        <v>1005.664315051632</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.5576298310164</v>
+        <v>909.685124281835</v>
       </c>
       <c r="AD2" t="n">
-        <v>533714.5846773095</v>
+        <v>735003.5732952021</v>
       </c>
       <c r="AE2" t="n">
-        <v>730251.8405811907</v>
+        <v>1005664.315051632</v>
       </c>
       <c r="AF2" t="n">
         <v>4.714459295958983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>660557.6298310164</v>
+        <v>909685.124281835</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.6943806372843</v>
+        <v>597.6979249583661</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.7680289505366</v>
+        <v>817.796669499486</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.004203029668</v>
+        <v>739.7473031472888</v>
       </c>
       <c r="AD3" t="n">
-        <v>434694.3806372843</v>
+        <v>597697.9249583661</v>
       </c>
       <c r="AE3" t="n">
-        <v>594768.0289505366</v>
+        <v>817796.669499486</v>
       </c>
       <c r="AF3" t="n">
         <v>5.555799467520548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.61979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>538004.2030296681</v>
+        <v>739747.3031472887</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.8941631353914</v>
+        <v>577.7620568112072</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.6764978405008</v>
+        <v>790.5195351921133</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.4982496255715</v>
+        <v>715.0734602545131</v>
       </c>
       <c r="AD4" t="n">
-        <v>414894.1631353914</v>
+        <v>577762.0568112072</v>
       </c>
       <c r="AE4" t="n">
-        <v>567676.4978405008</v>
+        <v>790519.5351921133</v>
       </c>
       <c r="AF4" t="n">
         <v>5.756507823456867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.44791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>513498.2496255714</v>
+        <v>715073.4602545131</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.4979196652533</v>
+        <v>791.7535783631506</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.8946193298835</v>
+        <v>1083.312175619126</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.2218696956261</v>
+        <v>979.9223820162235</v>
       </c>
       <c r="AD2" t="n">
-        <v>579497.9196652534</v>
+        <v>791753.5783631506</v>
       </c>
       <c r="AE2" t="n">
-        <v>792894.6193298835</v>
+        <v>1083312.175619126</v>
       </c>
       <c r="AF2" t="n">
         <v>4.216994521046884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>717221.8696956261</v>
+        <v>979922.3820162235</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>462.7674315108652</v>
+        <v>636.4528938938234</v>
       </c>
       <c r="AB3" t="n">
-        <v>633.178815651366</v>
+        <v>870.8229277455401</v>
       </c>
       <c r="AC3" t="n">
-        <v>572.749118157648</v>
+        <v>787.7128097291605</v>
       </c>
       <c r="AD3" t="n">
-        <v>462767.4315108652</v>
+        <v>636452.8938938235</v>
       </c>
       <c r="AE3" t="n">
-        <v>633178.815651366</v>
+        <v>870822.9277455402</v>
       </c>
       <c r="AF3" t="n">
         <v>5.060555869871296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>572749.118157648</v>
+        <v>787712.8097291605</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.7091249323793</v>
+        <v>588.7434968819076</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.1057615766942</v>
+        <v>805.5448259637893</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.6458432788726</v>
+        <v>728.6647583630687</v>
       </c>
       <c r="AD4" t="n">
-        <v>424709.1249323793</v>
+        <v>588743.4968819076</v>
       </c>
       <c r="AE4" t="n">
-        <v>581105.7615766942</v>
+        <v>805544.8259637894</v>
       </c>
       <c r="AF4" t="n">
         <v>5.389100103779158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.70833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>525645.8432788725</v>
+        <v>728664.7583630687</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.5693850989856</v>
+        <v>587.603757048514</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.5463192548723</v>
+        <v>803.9853836419675</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.2352319435541</v>
+        <v>727.2541470277503</v>
       </c>
       <c r="AD5" t="n">
-        <v>423569.3850989856</v>
+        <v>587603.757048514</v>
       </c>
       <c r="AE5" t="n">
-        <v>579546.3192548723</v>
+        <v>803985.3836419674</v>
       </c>
       <c r="AF5" t="n">
         <v>5.415294297953519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.55208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>524235.2319435542</v>
+        <v>727254.1470277503</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.3592476932164</v>
+        <v>920.6331217169443</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.1070027268103</v>
+        <v>1259.650852599958</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.4799484315192</v>
+        <v>1139.431543158893</v>
       </c>
       <c r="AD2" t="n">
-        <v>686359.2476932164</v>
+        <v>920633.1217169443</v>
       </c>
       <c r="AE2" t="n">
-        <v>939107.0027268103</v>
+        <v>1259650.852599958</v>
       </c>
       <c r="AF2" t="n">
         <v>3.441590949926015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>849479.9484315192</v>
+        <v>1139431.543158893</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.3232849005833</v>
+        <v>712.7156642327508</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.5069822624279</v>
+        <v>975.1690145992351</v>
       </c>
       <c r="AC3" t="n">
-        <v>652.6473685167107</v>
+        <v>882.1002525041914</v>
       </c>
       <c r="AD3" t="n">
-        <v>527323.2849005833</v>
+        <v>712715.6642327508</v>
       </c>
       <c r="AE3" t="n">
-        <v>721506.9822624279</v>
+        <v>975169.014599235</v>
       </c>
       <c r="AF3" t="n">
         <v>4.310941229389395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.16145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>652647.3685167107</v>
+        <v>882100.2525041914</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.5408629887833</v>
+        <v>652.2377271518839</v>
       </c>
       <c r="AB4" t="n">
-        <v>652.0242322403651</v>
+        <v>892.420432986914</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.7959546371014</v>
+        <v>807.2490793825865</v>
       </c>
       <c r="AD4" t="n">
-        <v>476540.8629887833</v>
+        <v>652237.7271518839</v>
       </c>
       <c r="AE4" t="n">
-        <v>652024.2322403651</v>
+        <v>892420.4329869139</v>
       </c>
       <c r="AF4" t="n">
         <v>4.645415581372049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.50520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>589795.9546371014</v>
+        <v>807249.0793825865</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.8752473540671</v>
+        <v>619.7419567326921</v>
       </c>
       <c r="AB5" t="n">
-        <v>621.0121369925566</v>
+        <v>847.9582862871644</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.7436102339947</v>
+        <v>767.030337560846</v>
       </c>
       <c r="AD5" t="n">
-        <v>453875.2473540672</v>
+        <v>619741.9567326921</v>
       </c>
       <c r="AE5" t="n">
-        <v>621012.1369925566</v>
+        <v>847958.2862871643</v>
       </c>
       <c r="AF5" t="n">
         <v>4.830373252832657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.17708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>561743.6102339947</v>
+        <v>767030.337560846</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.150313155436</v>
+        <v>605.0843423417655</v>
       </c>
       <c r="AB6" t="n">
-        <v>600.8648324037405</v>
+        <v>827.9030916291896</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.5191361182157</v>
+        <v>748.889182533386</v>
       </c>
       <c r="AD6" t="n">
-        <v>439150.313155436</v>
+        <v>605084.3423417655</v>
       </c>
       <c r="AE6" t="n">
-        <v>600864.8324037405</v>
+        <v>827903.0916291896</v>
       </c>
       <c r="AF6" t="n">
         <v>4.88919545307096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.76041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>543519.1361182156</v>
+        <v>748889.182533386</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.0355788136859</v>
+        <v>669.809191382116</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.1200536599554</v>
+        <v>916.4624855450086</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.260174854542</v>
+        <v>828.9965921877691</v>
       </c>
       <c r="AD2" t="n">
-        <v>489035.5788136859</v>
+        <v>669809.1913821159</v>
       </c>
       <c r="AE2" t="n">
-        <v>669120.0536599554</v>
+        <v>916462.4855450086</v>
       </c>
       <c r="AF2" t="n">
         <v>5.324904001752145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>605260.174854542</v>
+        <v>828996.5921877691</v>
       </c>
     </row>
     <row r="3">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.6652202358089</v>
+        <v>569.4666686335311</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.7855392468393</v>
+        <v>779.169419120719</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.5512702380415</v>
+        <v>704.8065833309848</v>
       </c>
       <c r="AD3" t="n">
-        <v>407665.2202358089</v>
+        <v>569466.6686335311</v>
       </c>
       <c r="AE3" t="n">
-        <v>557785.5392468394</v>
+        <v>779169.419120719</v>
       </c>
       <c r="AF3" t="n">
         <v>6.118500325608781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>504551.2702380415</v>
+        <v>704806.5833309848</v>
       </c>
     </row>
     <row r="4">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.1278509025774</v>
+        <v>568.8278140738146</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.0502868180503</v>
+        <v>778.2953101278406</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.8861892691228</v>
+        <v>704.0158980735671</v>
       </c>
       <c r="AD4" t="n">
-        <v>407127.8509025774</v>
+        <v>568827.8140738145</v>
       </c>
       <c r="AE4" t="n">
-        <v>557050.2868180503</v>
+        <v>778295.3101278406</v>
       </c>
       <c r="AF4" t="n">
         <v>6.148492222247863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>503886.1892691228</v>
+        <v>704015.8980735671</v>
       </c>
     </row>
   </sheetData>
@@ -8244,28 +8244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.9549259488208</v>
+        <v>592.0360759391974</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.7055891375923</v>
+        <v>810.0498778883095</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.4747399286952</v>
+        <v>732.7398544547925</v>
       </c>
       <c r="AD2" t="n">
-        <v>422954.9259488208</v>
+        <v>592036.0759391974</v>
       </c>
       <c r="AE2" t="n">
-        <v>578705.5891375922</v>
+        <v>810049.8778883095</v>
       </c>
       <c r="AF2" t="n">
         <v>6.593277939986234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>523474.7399286951</v>
+        <v>732739.8544547926</v>
       </c>
     </row>
     <row r="3">
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.6035817485907</v>
+        <v>553.3852835968057</v>
       </c>
       <c r="AB3" t="n">
-        <v>538.5457851129202</v>
+        <v>757.1661586528348</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.1477312354989</v>
+        <v>684.9032831603854</v>
       </c>
       <c r="AD3" t="n">
-        <v>393603.5817485907</v>
+        <v>553385.2835968058</v>
       </c>
       <c r="AE3" t="n">
-        <v>538545.7851129201</v>
+        <v>757166.1586528348</v>
       </c>
       <c r="AF3" t="n">
         <v>6.92663122578441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>487147.7312354989</v>
+        <v>684903.2831603854</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.6974076879149</v>
+        <v>551.898853788004</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.6741619024116</v>
+        <v>755.1323598117773</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.2638559243792</v>
+        <v>683.063587226264</v>
       </c>
       <c r="AD2" t="n">
-        <v>393697.4076879149</v>
+        <v>551898.853788004</v>
       </c>
       <c r="AE2" t="n">
-        <v>538674.1619024116</v>
+        <v>755132.3598117772</v>
       </c>
       <c r="AF2" t="n">
         <v>7.612973442814263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>487263.8559243792</v>
+        <v>683063.5872262639</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.4509063613013</v>
+        <v>552.6523524613905</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.7051320293543</v>
+        <v>756.1633299387198</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.1964317093822</v>
+        <v>683.9961630112668</v>
       </c>
       <c r="AD3" t="n">
-        <v>394450.9063613013</v>
+        <v>552652.3524613904</v>
       </c>
       <c r="AE3" t="n">
-        <v>539705.1320293543</v>
+        <v>756163.3299387199</v>
       </c>
       <c r="AF3" t="n">
         <v>7.607684070874375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>488196.4317093822</v>
+        <v>683996.1630112668</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.6637327145984</v>
+        <v>577.8661608874074</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.6787716040354</v>
+        <v>790.6619749819182</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.8364467351819</v>
+        <v>715.2023057906949</v>
       </c>
       <c r="AD2" t="n">
-        <v>404663.7327145984</v>
+        <v>577866.1608874075</v>
       </c>
       <c r="AE2" t="n">
-        <v>553678.7716040354</v>
+        <v>790661.9749819182</v>
       </c>
       <c r="AF2" t="n">
         <v>9.196081345960473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.69270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>500836.446735182</v>
+        <v>715202.3057906949</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.6351203607707</v>
+        <v>757.630093978551</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.2444845690844</v>
+        <v>1036.622918862233</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.6878179716458</v>
+        <v>937.6890823954251</v>
       </c>
       <c r="AD2" t="n">
-        <v>555635.1203607706</v>
+        <v>757630.093978551</v>
       </c>
       <c r="AE2" t="n">
-        <v>760244.4845690844</v>
+        <v>1036622.918862233</v>
       </c>
       <c r="AF2" t="n">
         <v>4.465377464313268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.59895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>687687.8179716459</v>
+        <v>937689.0823954251</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.4337319619765</v>
+        <v>616.9138104219644</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.408036154814</v>
+        <v>844.0886917358171</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.1971639323453</v>
+        <v>763.5300516824693</v>
       </c>
       <c r="AD3" t="n">
-        <v>453433.7319619766</v>
+        <v>616913.8104219644</v>
       </c>
       <c r="AE3" t="n">
-        <v>620408.0361548139</v>
+        <v>844088.6917358171</v>
       </c>
       <c r="AF3" t="n">
         <v>5.301356924138881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.19270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>561197.1639323453</v>
+        <v>763530.0516824693</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.1768915056396</v>
+        <v>582.6901243545511</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.5363157373154</v>
+        <v>797.2623346159121</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.7988147266201</v>
+        <v>721.1727363648832</v>
       </c>
       <c r="AD4" t="n">
-        <v>419176.8915056395</v>
+        <v>582690.1243545511</v>
       </c>
       <c r="AE4" t="n">
-        <v>573536.3157373153</v>
+        <v>797262.3346159121</v>
       </c>
       <c r="AF4" t="n">
         <v>5.571108538048645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.52604166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>518798.81472662</v>
+        <v>721172.7363648833</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.4616247574079</v>
+        <v>582.9748576063195</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.9259003339293</v>
+        <v>797.6519192125261</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.1512179161186</v>
+        <v>721.5251395543818</v>
       </c>
       <c r="AD5" t="n">
-        <v>419461.6247574079</v>
+        <v>582974.8576063195</v>
       </c>
       <c r="AE5" t="n">
-        <v>573925.9003339293</v>
+        <v>797651.9192125261</v>
       </c>
       <c r="AF5" t="n">
         <v>5.565749695357455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.55208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>519151.2179161186</v>
+        <v>721525.1395543818</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.7270900971988</v>
+        <v>885.5611671087919</v>
       </c>
       <c r="AB2" t="n">
-        <v>905.4041980098408</v>
+        <v>1211.663857039647</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.9936920945537</v>
+        <v>1096.024359104686</v>
       </c>
       <c r="AD2" t="n">
-        <v>661727.0900971988</v>
+        <v>885561.1671087919</v>
       </c>
       <c r="AE2" t="n">
-        <v>905404.1980098408</v>
+        <v>1211663.857039647</v>
       </c>
       <c r="AF2" t="n">
         <v>3.608909450326033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>818993.6920945537</v>
+        <v>1096024.359104686</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.7744081833944</v>
+        <v>693.7304898308521</v>
       </c>
       <c r="AB3" t="n">
-        <v>696.1275908192832</v>
+        <v>949.1926614157753</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.6901505727002</v>
+        <v>858.6030460105203</v>
       </c>
       <c r="AD3" t="n">
-        <v>508774.4081833944</v>
+        <v>693730.4898308521</v>
       </c>
       <c r="AE3" t="n">
-        <v>696127.5908192833</v>
+        <v>949192.6614157753</v>
       </c>
       <c r="AF3" t="n">
         <v>4.475731919540747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.58854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>629690.1505727002</v>
+        <v>858603.0460105203</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.3707916639332</v>
+        <v>633.5563790996503</v>
       </c>
       <c r="AB4" t="n">
-        <v>627.163139046733</v>
+        <v>866.8597884189384</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.3075692851062</v>
+        <v>784.1279068575885</v>
       </c>
       <c r="AD4" t="n">
-        <v>458370.7916639332</v>
+        <v>633556.3790996503</v>
       </c>
       <c r="AE4" t="n">
-        <v>627163.139046733</v>
+        <v>866859.7884189384</v>
       </c>
       <c r="AF4" t="n">
         <v>4.823366467554309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.95833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>567307.5692851061</v>
+        <v>784127.9068575886</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.5284232281588</v>
+        <v>602.0118472896968</v>
       </c>
       <c r="AB5" t="n">
-        <v>597.2774469356198</v>
+        <v>823.699168350034</v>
       </c>
       <c r="AC5" t="n">
-        <v>540.2741256842453</v>
+        <v>745.0864757917498</v>
       </c>
       <c r="AD5" t="n">
-        <v>436528.4232281588</v>
+        <v>602011.8472896968</v>
       </c>
       <c r="AE5" t="n">
-        <v>597277.4469356198</v>
+        <v>823699.168350034</v>
       </c>
       <c r="AF5" t="n">
         <v>4.991649761780846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>540274.1256842453</v>
+        <v>745086.4757917498</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.2220992678506</v>
+        <v>600.7055233293885</v>
       </c>
       <c r="AB6" t="n">
-        <v>595.4900768621802</v>
+        <v>821.9117982765945</v>
       </c>
       <c r="AC6" t="n">
-        <v>538.6573397020252</v>
+        <v>743.4696898095295</v>
       </c>
       <c r="AD6" t="n">
-        <v>435222.0992678506</v>
+        <v>600705.5233293885</v>
       </c>
       <c r="AE6" t="n">
-        <v>595490.0768621803</v>
+        <v>821911.7982765945</v>
       </c>
       <c r="AF6" t="n">
         <v>5.008754790192512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.70833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>538657.3397020252</v>
+        <v>743469.6898095296</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.9859915300627</v>
+        <v>624.5748826237621</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.1670238390009</v>
+        <v>854.5709087049686</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.3651184059702</v>
+        <v>773.0118605759689</v>
       </c>
       <c r="AD2" t="n">
-        <v>434985.9915300627</v>
+        <v>624574.882623762</v>
       </c>
       <c r="AE2" t="n">
-        <v>595167.0238390008</v>
+        <v>854570.9087049686</v>
       </c>
       <c r="AF2" t="n">
         <v>9.749452984943312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.75520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>538365.1184059702</v>
+        <v>773011.8605759689</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.7223726139143</v>
+        <v>614.5968288766906</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.4887699767445</v>
+        <v>840.9184953675619</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.4154557895157</v>
+        <v>760.6624144062019</v>
       </c>
       <c r="AD2" t="n">
-        <v>444722.3726139143</v>
+        <v>614596.8288766906</v>
       </c>
       <c r="AE2" t="n">
-        <v>608488.7699767445</v>
+        <v>840918.4953675619</v>
       </c>
       <c r="AF2" t="n">
         <v>6.114606911121253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>550415.4557895157</v>
+        <v>760662.4144062019</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.0373254422138</v>
+        <v>558.5359936521801</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.612228837502</v>
+        <v>764.2135873838882</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.6352020853139</v>
+        <v>691.2781151844754</v>
       </c>
       <c r="AD3" t="n">
-        <v>398037.3254422138</v>
+        <v>558535.9936521801</v>
       </c>
       <c r="AE3" t="n">
-        <v>544612.2288375021</v>
+        <v>764213.5873838882</v>
       </c>
       <c r="AF3" t="n">
         <v>6.640258334306181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.63020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>492635.202085314</v>
+        <v>691278.1151844754</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.8671739588454</v>
+        <v>700.8304822960232</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.6227611626788</v>
+        <v>958.9071843361833</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.0426239570068</v>
+        <v>867.390428497823</v>
       </c>
       <c r="AD2" t="n">
-        <v>509867.1739588454</v>
+        <v>700830.4822960232</v>
       </c>
       <c r="AE2" t="n">
-        <v>697622.7611626788</v>
+        <v>958907.1843361832</v>
       </c>
       <c r="AF2" t="n">
         <v>5.028979144447778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>631042.6239570067</v>
+        <v>867390.428497823</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.0563842114509</v>
+        <v>588.3890141200429</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.9491411592045</v>
+        <v>805.0598070103305</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.3132933012275</v>
+        <v>728.2260289377994</v>
       </c>
       <c r="AD3" t="n">
-        <v>426056.3842114509</v>
+        <v>588389.0141200429</v>
       </c>
       <c r="AE3" t="n">
-        <v>582949.1411592045</v>
+        <v>805059.8070103305</v>
       </c>
       <c r="AF3" t="n">
         <v>5.823348110979158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>527313.2933012275</v>
+        <v>728226.0289377994</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.257266520594</v>
+        <v>573.5557310104052</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.7003354435806</v>
+        <v>784.7642546614585</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.9970051837253</v>
+        <v>709.8674556201174</v>
       </c>
       <c r="AD4" t="n">
-        <v>411257.2665205941</v>
+        <v>573555.7310104052</v>
       </c>
       <c r="AE4" t="n">
-        <v>562700.3354435805</v>
+        <v>784764.2546614585</v>
       </c>
       <c r="AF4" t="n">
         <v>5.934068007022828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>508997.0051837253</v>
+        <v>709867.4556201174</v>
       </c>
     </row>
   </sheetData>
